--- a/pytest_project/excel_data/index/index.xlsx
+++ b/pytest_project/excel_data/index/index.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="媒体按钮对应的网站" sheetId="10" r:id="rId1"/>
@@ -13,430 +13,361 @@
     <sheet name="正确邮箱" sheetId="13" r:id="rId4"/>
     <sheet name="错误邮箱" sheetId="14" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="122">
   <si>
     <t>媒体</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>媒体网址</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>TechnoFAQ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>https://technofaq.org/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>IGEEKSBLOG</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>https://www.igeeksblog.com/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MacRumors</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>https://www.macrumors.com/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Macworld</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>https://www.macworld.com/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CultOfMac</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>https://www.cultofmac.com/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MakeTechEasier</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>https://www.maketecheasier.com/</t>
   </si>
   <si>
     <t>iMore</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>https://www.imore.com/</t>
   </si>
   <si>
+    <t>9TO5Mac</t>
+  </si>
+  <si>
     <t>https://9to5mac.com/</t>
   </si>
   <si>
-    <t>9TO5Mac</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>CoolDroid</t>
   </si>
   <si>
     <t>https://cooldroid.net/</t>
   </si>
   <si>
-    <t>CoolDroid</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>IFIXIT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.ifixit.com/</t>
   </si>
   <si>
     <t>MacStories</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>https://www.macstories.net/</t>
   </si>
   <si>
+    <t>AppleInSider</t>
+  </si>
+  <si>
     <t>https://appleinsider.com/</t>
   </si>
   <si>
-    <t>AppleInSider</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.ifixit.com/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>底部链接名</t>
   </si>
   <si>
     <t>url</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>PowerMyMac</t>
   </si>
   <si>
-    <t>底部链接名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>https://www.imymac.com/powermymac/</t>
   </si>
   <si>
     <t>Video-Converter</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.imymac.com/video-converter/</t>
   </si>
   <si>
     <t>PDF-Compressor</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.imymac.com/pdf-compressor/</t>
   </si>
   <si>
     <t>Uninstall-Apps-on-Mac</t>
   </si>
   <si>
+    <t>https://www.imymac.com/mac-uninstaller/</t>
+  </si>
+  <si>
     <t>Best-Mac-Cleaner</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.imymac.com/mac-cleaner/</t>
   </si>
   <si>
     <t>Find-Duplicate-File</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.imymac.com/duplicate-finder/</t>
   </si>
   <si>
     <t>Find-Similar-Images</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.imymac.com/similar-image-finder/</t>
   </si>
   <si>
     <t>Clean-Search-History</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.imymac.com/browser-cleanup/</t>
   </si>
   <si>
     <t>Mac-Running-Slow</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.imymac.com/mac-cleaner/macbook-running-slow.html</t>
   </si>
   <si>
     <t>Speed-Up-Mac</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.imymac.com/mac-cleaner/how-to-speed-up-mac.html</t>
   </si>
   <si>
     <t>Startup-Disk-Full</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.imymac.com/browser-cleanup/startup-disk-full-on-mac.html</t>
   </si>
   <si>
     <t>Clean-up-Mac</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.imymac.com/mac-cleaner/how-to-clean-up-a-mac.html</t>
   </si>
   <si>
     <t>Clean-Cache-on-Mac</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.imymac.com/mac-cleaner/how-to-clear-cache-on-mac.html</t>
   </si>
   <si>
     <t>About-iMyMac</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.imymac.com/about-us/</t>
   </si>
   <si>
     <t>FAQ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.imymac.com/faqs/</t>
   </si>
   <si>
     <t>Resource</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.imymac.com/resource/</t>
   </si>
   <si>
     <t>Contact-us</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.imymac.com/contact/</t>
   </si>
   <si>
     <t>Student-Discount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.imymac.com/student-discount/</t>
   </si>
   <si>
     <t>Privacy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.imymac.com/privacy.html</t>
   </si>
   <si>
     <t>Terms</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.imymac.com/terms.html</t>
   </si>
   <si>
     <t>Refund</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.imymac.com/refund.html</t>
   </si>
   <si>
     <t>License-Agreement</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.imymac.com/license-agreement/</t>
   </si>
   <si>
     <t>Site-Map</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.imymac.com/sitemap/</t>
   </si>
   <si>
     <t>facebook</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iMyMacTechnology/</t>
   </si>
   <si>
     <t>twitter</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://twitter.com/iMyMacTech</t>
   </si>
   <si>
     <t>youtube</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.imymac.com/powermymac/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.imymac.com/video-converter/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.imymac.com/pdf-compressor/</t>
-  </si>
-  <si>
-    <t>https://www.imymac.com/resource/</t>
-  </si>
-  <si>
-    <t>https://www.imymac.com/student-discount/</t>
-  </si>
-  <si>
-    <t>https://www.imymac.com/license-agreement/</t>
-  </si>
-  <si>
-    <t>https://www.imymac.com/mac-uninstaller/</t>
-  </si>
-  <si>
-    <t>https://www.imymac.com/mac-cleaner/</t>
-  </si>
-  <si>
-    <t>https://www.imymac.com/duplicate-finder/</t>
-  </si>
-  <si>
-    <t>https://www.imymac.com/similar-image-finder/</t>
-  </si>
-  <si>
-    <t>https://www.imymac.com/browser-cleanup/</t>
-  </si>
-  <si>
-    <t>https://www.imymac.com/mac-cleaner/macbook-running-slow.html</t>
-  </si>
-  <si>
-    <t>https://www.imymac.com/mac-cleaner/how-to-speed-up-mac.html</t>
-  </si>
-  <si>
-    <t>https://www.imymac.com/mac-cleaner/how-to-clean-up-a-mac.html</t>
-  </si>
-  <si>
-    <t>https://www.imymac.com/mac-cleaner/how-to-clear-cache-on-mac.html</t>
-  </si>
-  <si>
-    <t>https://www.imymac.com/about-us/</t>
-  </si>
-  <si>
-    <t>https://www.imymac.com/faqs/</t>
-  </si>
-  <si>
-    <t>https://www.imymac.com/contact/</t>
-  </si>
-  <si>
-    <t>https://www.imymac.com/privacy.html</t>
-  </si>
-  <si>
-    <t>https://www.imymac.com/terms.html</t>
-  </si>
-  <si>
-    <t>https://www.imymac.com/refund.html</t>
-  </si>
-  <si>
-    <t>https://www.imymac.com/sitemap/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/iMyMacTechnology/</t>
-  </si>
-  <si>
-    <t>https://twitter.com/iMyMacTech</t>
   </si>
   <si>
     <t>https://www.youtube.com/channel/UCSwAck_if6n-FgKuVJ_WqzQ</t>
   </si>
   <si>
     <t>语言</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>url</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>en</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.imymac.com/index.html</t>
   </si>
   <si>
     <t>fr</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.imymac.fr/</t>
   </si>
   <si>
     <t>de</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.imymac.de/</t>
   </si>
   <si>
     <t>es</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.imymac.es/</t>
   </si>
   <si>
     <t>ja</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.imymac.jp/</t>
   </si>
   <si>
     <t>zh-tw</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.imymac.tw/</t>
   </si>
   <si>
     <t>zh-cn</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.imymac.com/zh-CN/index.html</t>
   </si>
   <si>
     <t>it</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.imymac.it/</t>
   </si>
   <si>
     <t>ko</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.imymac.com/ko/index.html</t>
   </si>
   <si>
     <t>nl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.imymac.com/nl/index.html</t>
   </si>
   <si>
     <t>pl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.imymac.com/pl/index.html</t>
   </si>
   <si>
     <t>ru</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.imymac.com/ru/index.html</t>
   </si>
   <si>
     <t>pt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.imymac.com/pt/index.html</t>
   </si>
   <si>
     <t>ar</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.imymac.com/index.html</t>
-  </si>
-  <si>
-    <t>https://www.imymac.fr/</t>
-  </si>
-  <si>
-    <t>https://www.imymac.de/</t>
-  </si>
-  <si>
-    <t>https://www.imymac.es/</t>
-  </si>
-  <si>
-    <t>https://www.imymac.jp/</t>
-  </si>
-  <si>
-    <t>https://www.imymac.tw/</t>
-  </si>
-  <si>
-    <t>https://www.imymac.com/zh-CN/index.html</t>
-  </si>
-  <si>
-    <t>https://www.imymac.it/</t>
-  </si>
-  <si>
-    <t>https://www.imymac.com/ko/index.html</t>
-  </si>
-  <si>
-    <t>https://www.imymac.com/nl/index.html</t>
-  </si>
-  <si>
-    <t>https://www.imymac.com/pl/index.html</t>
-  </si>
-  <si>
-    <t>https://www.imymac.com/ru/index.html</t>
-  </si>
-  <si>
-    <t>https://www.imymac.com/pt/index.html</t>
   </si>
   <si>
     <t>https://www.imymac.com/ar/index.html</t>
   </si>
   <si>
     <t>邮箱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>123@123.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>123@123.123.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>123@123..com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>123.123@123.</t>
     </r>
     <r>
@@ -445,7 +376,6 @@
         <sz val="11"/>
         <color theme="10"/>
         <rFont val="等线"/>
-        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -457,27 +387,33 @@
         <sz val="11"/>
         <color theme="10"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>123</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>123.@123.123</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>123123.123</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>123@123.</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>123@123.</t>
     </r>
     <r>
@@ -485,7 +421,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -494,6 +429,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>123</t>
     </r>
     <r>
@@ -501,7 +443,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -512,52 +453,34 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>@123.com</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>?123@123.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.imymac.com/browser-cleanup/startup-disk-full-on-mac.html</t>
   </si>
   <si>
     <t>123@123.com-a</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -566,14 +489,164 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -581,29 +654,205 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -611,35 +860,318 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="10" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -688,7 +1220,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -723,7 +1255,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -897,34 +1429,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="112" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.125" customWidth="1"/>
+    <col min="2" max="2" width="112" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -932,7 +1459,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -940,7 +1467,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -948,7 +1475,7 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -956,7 +1483,7 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -964,7 +1491,7 @@
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -972,7 +1499,7 @@
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -980,408 +1507,410 @@
       <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>25</v>
+      <c r="B11" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="B16" s="1"/>
+      <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="2"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="1"/>
+      <c r="B17" s="2"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="1"/>
+      <c r="B18" s="2"/>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="1"/>
+      <c r="B19" s="2"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="1"/>
+      <c r="B20" s="2"/>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="1"/>
+      <c r="B21" s="2"/>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="1"/>
+      <c r="B22" s="2"/>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="1"/>
+      <c r="B23" s="2"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="1"/>
+      <c r="B24" s="2"/>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="1"/>
+      <c r="B25" s="2"/>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="1"/>
+      <c r="B26" s="2"/>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="1"/>
+      <c r="B27" s="2"/>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="1"/>
+      <c r="B28" s="2"/>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="1"/>
+      <c r="B29" s="2"/>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="1"/>
+      <c r="B30" s="2"/>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="1"/>
+      <c r="B31" s="2"/>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="1"/>
+      <c r="B32" s="2"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="1"/>
+      <c r="B33" s="2"/>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="1"/>
+      <c r="B34" s="2"/>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="1"/>
+      <c r="B35" s="2"/>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="1"/>
+      <c r="B36" s="2"/>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="1"/>
+      <c r="B37" s="2"/>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="1"/>
+      <c r="B38" s="2"/>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="1"/>
+      <c r="B39" s="2"/>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="1"/>
+      <c r="B40" s="2"/>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="1"/>
+      <c r="B41" s="2"/>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="1"/>
+      <c r="B42" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B11" r:id="rId6"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://technofaq.org/"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://www.igeeksblog.com/"/>
+    <hyperlink ref="B4" r:id="rId3" display="https://www.macrumors.com/"/>
+    <hyperlink ref="B5" r:id="rId4" display="https://www.macworld.com/"/>
+    <hyperlink ref="B6" r:id="rId5" display="https://www.cultofmac.com/"/>
+    <hyperlink ref="B11" r:id="rId6" display="https://www.ifixit.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="23.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="68.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="3" t="s">
         <v>26</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
-        <v>29</v>
+      <c r="A3" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="4" t="s">
-        <v>30</v>
+      <c r="A4" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B19" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B20" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B21" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="B22" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="B23" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="B24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="3" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="B26" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="4" t="s">
-        <v>53</v>
+      <c r="A27" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="2" width="40.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1389,130 +1918,131 @@
         <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B15" t="s">
         <v>108</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1531,60 +2061,61 @@
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="6"/>
+      <c r="A4" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="6" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="6" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="6" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="8" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -1598,25 +2129,25 @@
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A10" r:id="rId4"/>
-    <hyperlink ref="A11" r:id="rId5"/>
+    <hyperlink ref="A2" r:id="rId1" display="123@123..com"/>
+    <hyperlink ref="A3" r:id="rId2" display="123.123@123.♥123"/>
+    <hyperlink ref="A4" r:id="rId3" display="123.@123.123"/>
+    <hyperlink ref="A10" r:id="rId4" display="?123@123.com"/>
+    <hyperlink ref="A11" r:id="rId5" display="123@123.com-a"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>